--- a/outputs-r202/g__RC9.xlsx
+++ b/outputs-r202/g__RC9.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW67"/>
+  <dimension ref="A1:EX67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,6 +1200,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1665,6 +1670,11 @@
           <t>s__RC9 sp001602865</t>
         </is>
       </c>
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>s__RC9 sp001602865(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2130,6 +2140,11 @@
           <t>s__RC9 sp900318445</t>
         </is>
       </c>
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900318445</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2595,6 +2610,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3060,6 +3080,11 @@
           <t>s__RC9 sp900317925</t>
         </is>
       </c>
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317925(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3525,6 +3550,11 @@
           <t>s__RC9 sp900316245</t>
         </is>
       </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316245</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3990,6 +4020,11 @@
           <t>s__RC9 sp900316525</t>
         </is>
       </c>
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316525</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4455,6 +4490,11 @@
           <t>s__RC9 sp900316675</t>
         </is>
       </c>
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316675</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4920,6 +4960,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5385,6 +5430,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX10" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5850,6 +5900,11 @@
           <t>s__RC9 sp002439585</t>
         </is>
       </c>
+      <c r="EX11" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002439585(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6315,6 +6370,11 @@
           <t>s__RC9 sp900318445</t>
         </is>
       </c>
+      <c r="EX12" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900318445</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6780,6 +6840,11 @@
           <t>s__RC9 sp900316955</t>
         </is>
       </c>
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316955</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7245,6 +7310,11 @@
           <t>s__RC9 sp900317065</t>
         </is>
       </c>
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317065</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7710,6 +7780,11 @@
           <t>s__RC9 sp900317845</t>
         </is>
       </c>
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317845</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -8175,6 +8250,11 @@
           <t>s__RC9 sp900317925</t>
         </is>
       </c>
+      <c r="EX16" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317925</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -8640,6 +8720,11 @@
           <t>s__RC9 sp001602865</t>
         </is>
       </c>
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>s__RC9 sp001602865(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -9105,6 +9190,11 @@
           <t>s__RC9 sp900318015</t>
         </is>
       </c>
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900318015</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -9570,6 +9660,11 @@
           <t>s__RC9 sp002350615</t>
         </is>
       </c>
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002350615(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -10035,6 +10130,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -10500,6 +10600,11 @@
           <t>s__RC9 sp900318355</t>
         </is>
       </c>
+      <c r="EX21" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900318355</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -10965,6 +11070,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX22" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -11430,6 +11540,11 @@
           <t>s__RC9 sp900318565</t>
         </is>
       </c>
+      <c r="EX23" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900318565</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -11895,6 +12010,11 @@
           <t>s__RC9 sp002392525</t>
         </is>
       </c>
+      <c r="EX24" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002392525</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -12360,6 +12480,11 @@
           <t>s__RC9 sp900317845</t>
         </is>
       </c>
+      <c r="EX25" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317845</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -12825,6 +12950,11 @@
           <t>s__RC9 sp002350615</t>
         </is>
       </c>
+      <c r="EX26" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002350615(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -13290,6 +13420,11 @@
           <t>s__RC9 sp002354005</t>
         </is>
       </c>
+      <c r="EX27" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002354005</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -13755,6 +13890,11 @@
           <t>s__RC9 sp002321335</t>
         </is>
       </c>
+      <c r="EX28" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002321335(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -14220,6 +14360,11 @@
           <t>s__RC9 sp900319185</t>
         </is>
       </c>
+      <c r="EX29" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900319185</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -14685,6 +14830,11 @@
           <t>s__RC9 sp900319485</t>
         </is>
       </c>
+      <c r="EX30" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900319485</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -15150,6 +15300,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX31" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -15615,6 +15770,11 @@
           <t>s__RC9 sp900319405</t>
         </is>
       </c>
+      <c r="EX32" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900319405</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -16080,6 +16240,11 @@
           <t>s__RC9 sp900319375</t>
         </is>
       </c>
+      <c r="EX33" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900319375</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -16545,6 +16710,11 @@
           <t>s__RC9 sp900319685</t>
         </is>
       </c>
+      <c r="EX34" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900319685</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -17010,6 +17180,11 @@
           <t>s__RC9 sp002354005</t>
         </is>
       </c>
+      <c r="EX35" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002354005</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -17475,6 +17650,11 @@
           <t>s__RC9 sp900319855</t>
         </is>
       </c>
+      <c r="EX36" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900319855</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -17940,6 +18120,11 @@
           <t>s__RC9 sp900319975</t>
         </is>
       </c>
+      <c r="EX37" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900319975</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -18405,6 +18590,11 @@
           <t>s__RC9 sp900321715</t>
         </is>
       </c>
+      <c r="EX38" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900321715</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -18870,6 +19060,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX39" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -19335,6 +19530,11 @@
           <t>s__RC9 sp900320385</t>
         </is>
       </c>
+      <c r="EX40" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900320385</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -19800,6 +20000,11 @@
           <t>s__RC9 sp900317845</t>
         </is>
       </c>
+      <c r="EX41" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317845(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -20265,6 +20470,11 @@
           <t>s__RC9 sp900320545</t>
         </is>
       </c>
+      <c r="EX42" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900320545</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -20730,6 +20940,11 @@
           <t>s__RC9 sp900321715</t>
         </is>
       </c>
+      <c r="EX43" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900321715</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -21195,6 +21410,11 @@
           <t>s__RC9 sp000433355</t>
         </is>
       </c>
+      <c r="EX44" t="inlineStr">
+        <is>
+          <t>s__RC9 sp000433355(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -21660,6 +21880,11 @@
           <t>s__RC9 sp900320795</t>
         </is>
       </c>
+      <c r="EX45" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900320795</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -22125,6 +22350,11 @@
           <t>s__RC9 sp900317925</t>
         </is>
       </c>
+      <c r="EX46" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317925</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -22590,6 +22820,11 @@
           <t>s__RC9 sp900321715</t>
         </is>
       </c>
+      <c r="EX47" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900321715</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -23055,6 +23290,11 @@
           <t>s__RC9 sp900321655</t>
         </is>
       </c>
+      <c r="EX48" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900321655</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -23520,6 +23760,11 @@
           <t>s__RC9 sp002350615</t>
         </is>
       </c>
+      <c r="EX49" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002350615(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -23985,6 +24230,11 @@
           <t>s__RC9 sp002350615</t>
         </is>
       </c>
+      <c r="EX50" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002350615(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -24450,6 +24700,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX51" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -24915,6 +25170,11 @@
           <t>s__RC9 sp002354005</t>
         </is>
       </c>
+      <c r="EX52" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002354005</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -25380,6 +25640,11 @@
           <t>s__RC9 sp900321245</t>
         </is>
       </c>
+      <c r="EX53" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900321245</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -25845,6 +26110,11 @@
           <t>s__RC9 sp900317925</t>
         </is>
       </c>
+      <c r="EX54" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317925</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -26310,6 +26580,11 @@
           <t>s__RC9 sp900321715</t>
         </is>
       </c>
+      <c r="EX55" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900321715</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -26775,6 +27050,11 @@
           <t>s__RC9 sp900317925</t>
         </is>
       </c>
+      <c r="EX56" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317925(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -27240,6 +27520,11 @@
           <t>s__RC9 sp900316045</t>
         </is>
       </c>
+      <c r="EX57" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316045(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -27705,6 +27990,11 @@
           <t>s__RC9 sp900317925</t>
         </is>
       </c>
+      <c r="EX58" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317925</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -28170,6 +28460,11 @@
           <t>s__RC9 sp900313205</t>
         </is>
       </c>
+      <c r="EX59" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900313205</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -28635,6 +28930,11 @@
           <t>s__RC9 sp900313275</t>
         </is>
       </c>
+      <c r="EX60" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900313275</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -29100,6 +29400,11 @@
           <t>s__RC9 sp002350615</t>
         </is>
       </c>
+      <c r="EX61" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002350615(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -29565,6 +29870,11 @@
           <t>s__RC9 sp900316955</t>
         </is>
       </c>
+      <c r="EX62" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900316955(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -30030,6 +30340,11 @@
           <t>s__RC9 sp900317845</t>
         </is>
       </c>
+      <c r="EX63" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317845</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -30495,6 +30810,11 @@
           <t>s__RC9 sp900317925</t>
         </is>
       </c>
+      <c r="EX64" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900317925(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -30960,6 +31280,11 @@
           <t>s__RC9 sp002320605</t>
         </is>
       </c>
+      <c r="EX65" t="inlineStr">
+        <is>
+          <t>s__RC9 sp002320605</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -31425,6 +31750,11 @@
           <t>s__RC9 sp900318445</t>
         </is>
       </c>
+      <c r="EX66" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900318445</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -31886,6 +32216,11 @@
         <v>0.998019399727977</v>
       </c>
       <c r="EW67" t="inlineStr">
+        <is>
+          <t>s__RC9 sp900314395</t>
+        </is>
+      </c>
+      <c r="EX67" t="inlineStr">
         <is>
           <t>s__RC9 sp900314395</t>
         </is>
